--- a/Pearson/Data/PEARSON.xlsx
+++ b/Pearson/Data/PEARSON.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Gaby\Pearson\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Gaby\Ilex-Guayusa-antidiabetic-and-antioxidant\Pearson\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8298749E-B7CE-49C5-BEE1-AA4ADC7CFB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B036575-FCF4-4F88-B2F3-F23F908F77A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4F4108DA-AD49-4AC9-9C48-5FFC6B9FFE8F}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -549,13 +549,13 @@
         <v>6.1888632281241982</v>
       </c>
       <c r="F2">
-        <v>0.33519406243896699</v>
+        <v>0.303382755</v>
       </c>
       <c r="G2">
         <v>252.01</v>
       </c>
       <c r="H2">
-        <v>0.33519406243896699</v>
+        <v>0.31843842700000002</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -575,13 +575,13 @@
         <v>5.9488622905193358</v>
       </c>
       <c r="F3">
-        <v>9.6880230481116783E-2</v>
+        <v>9.6880303000000001E-2</v>
       </c>
       <c r="G3">
         <v>156.6</v>
       </c>
       <c r="H3">
-        <v>9.6880230481116783E-2</v>
+        <v>0.29064937499999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -601,13 +601,13 @@
         <v>6.7667806342770405</v>
       </c>
       <c r="F4">
-        <v>0.28074274461358234</v>
+        <v>0.28074311899999999</v>
       </c>
       <c r="G4">
         <v>63.96</v>
       </c>
       <c r="H4">
-        <v>0.28074274461358234</v>
+        <v>0.35775086499999997</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -627,13 +627,13 @@
         <v>6.1055512787614417</v>
       </c>
       <c r="F5">
-        <v>0.22642063130315501</v>
+        <v>0.22642038</v>
       </c>
       <c r="G5">
         <v>172.85</v>
       </c>
       <c r="H5">
-        <v>0.22642063130315501</v>
+        <v>0.38852735900000002</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -653,13 +653,13 @@
         <v>5.8536128847227893</v>
       </c>
       <c r="F6">
-        <v>5.5092631479974431E-2</v>
+        <v>5.5113346000000001E-2</v>
       </c>
       <c r="G6">
         <v>289.89</v>
       </c>
       <c r="H6">
-        <v>5.5092631479974431E-2</v>
+        <v>0.33773510600000001</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -679,13 +679,13 @@
         <v>4.2743580075910925</v>
       </c>
       <c r="F7">
-        <v>0.18505163780689968</v>
+        <v>0.18505081500000001</v>
       </c>
       <c r="G7">
         <v>283.86</v>
       </c>
       <c r="H7">
-        <v>0.18505163780689968</v>
+        <v>0.307776983</v>
       </c>
     </row>
   </sheetData>
